--- a/数据整理/stocks/A股/深证主板/000703-恒逸石化.xlsx
+++ b/数据整理/stocks/A股/深证主板/000703-恒逸石化.xlsx
@@ -451,99 +451,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>006823</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>凯石湛混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>006822</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>凯石湛混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>77.93</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.25</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006823</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>凯石湛混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>77.93</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009130</t>
+          <t>002132</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏扬景恒六个月持有期混合A</t>
+          <t>广发鑫享灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.49</t>
+          <t>37.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4015</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009131</t>
+          <t>720001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏扬景恒六个月持有期混合C</t>
+          <t>财通价值动量混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.49</t>
+          <t>19.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>79.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9565</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004560</t>
+          <t>001480</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇安丰益灵活配置混合A</t>
+          <t>财通成长优选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>83.29</t>
+          <t>14.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>95.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7685</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004561</t>
+          <t>008638</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇安丰益灵活配置混合C</t>
+          <t>广发科技创新混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>83.29</t>
+          <t>11.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5828</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -706,26 +786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004212</t>
+          <t>501085</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中融量化智选混合A</t>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5823</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -734,26 +824,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004783</t>
+          <t>008983</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中融量化智选混合C</t>
+          <t>财通科技创新混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3414</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -762,26 +862,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009114</t>
+          <t>009130</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏扬景泓回报灵活配置混合A</t>
+          <t>鹏扬景恒六个月持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>79.99</t>
+          <t>35.02</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>23.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3292</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -790,26 +900,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009115</t>
+          <t>009062</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏扬景泓回报灵活配置混合C</t>
+          <t>财通智慧成长混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>79.99</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -818,26 +938,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005628</t>
+          <t>501046</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇安趋势动力股票A</t>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -846,26 +976,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005629</t>
+          <t>009114</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇安趋势动力股票C</t>
+          <t>鹏扬景泓回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000916</t>
+          <t>673081</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>前海开源股息率100强等权重股票</t>
+          <t>西部利得祥运灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>501046</t>
+          <t>009131</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>财通多策略福鑫定期开放灵活配置混合</t>
+          <t>鹏扬景恒六个月持有期混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>87.45</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>23.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>501085</t>
+          <t>009063</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+          <t>财通智慧成长混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>89.41</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>007137</t>
+          <t>008984</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鹏扬元合量化大盘优选股票A</t>
+          <t>财通科技创新混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007138</t>
+          <t>000916</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鹏扬元合量化大盘优选股票C</t>
+          <t>前海开源股息率100强等权重股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001480</t>
+          <t>007137</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>财通成长优选混合</t>
+          <t>鹏扬元合量化大盘优选股票A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>95.27</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002132</t>
+          <t>673083</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>广发鑫享灵活配置混合</t>
+          <t>西部利得祥运灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>85.41</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>673081</t>
+          <t>009115</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>西部利得祥运灵活配置混合A</t>
+          <t>鹏扬景泓回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>83.67</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>673083</t>
+          <t>007138</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>西部利得祥运灵活配置混合C</t>
+          <t>鹏扬元合量化大盘优选股票C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>83.67</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>720001</t>
+          <t>004560</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>财通价值动量混合</t>
+          <t>汇安丰益灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>79.67</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>6</v>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>008638</t>
+          <t>004561</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>广发科技创新混合</t>
+          <t>汇安丰益灵活配置混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008983</t>
+          <t>004212</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>财通科技创新混合A</t>
+          <t>中融量化智选混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>6</v>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>008984</t>
+          <t>005628</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>财通科技创新混合C</t>
+          <t>汇安趋势动力股票A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>6</v>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>009062</t>
+          <t>005629</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>财通智慧成长混合A</t>
+          <t>汇安趋势动力股票C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>91.84</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1266,26 +1546,30 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009063</t>
+          <t>004783</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>财通智慧成长混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000703-恒逸石化.xlsx
+++ b/数据整理/stocks/A股/深证主板/000703-恒逸石化.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1554,7 +1555,6 @@
           <t>中融量化智选混合C</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>91.40</t>
@@ -1570,6 +1570,480 @@
       </c>
       <c r="H26" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9844</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6280</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5709</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2793</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1669</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000703-恒逸石化.xlsx
+++ b/数据整理/stocks/A股/深证主板/000703-恒逸石化.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2049,4 +2050,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000703-恒逸石化.xlsx
+++ b/数据整理/stocks/A股/深证主板/000703-恒逸石化.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2182,4 +2183,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000703-恒逸石化.xlsx
+++ b/数据整理/stocks/A股/深证主板/000703-恒逸石化.xlsx
@@ -2207,12 +2207,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000703-恒逸石化.xlsx
+++ b/数据整理/stocks/A股/深证主板/000703-恒逸石化.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2191,7 +2192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2202,17 +2203,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2222,14 +2243,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>006478</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛多因子策略优选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -2238,14 +2333,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2.89</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -2254,14 +2349,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>5.77</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="5">
@@ -2270,13 +2365,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000703-恒逸石化.xlsx
+++ b/数据整理/stocks/A股/深证主板/000703-恒逸石化.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2286,7 +2287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,17 +2298,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2317,14 +2338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>47.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2780</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2333,14 +2376,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>46.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1928</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2349,14 +2414,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.89</v>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2365,14 +2452,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.77</v>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2381,13 +2490,395 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014014</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013759</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013760</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000703-恒逸石化.xlsx
+++ b/数据整理/stocks/A股/深证主板/000703-恒逸石化.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,37 +467,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -507,36 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006823</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>凯石湛混合C</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>77.93</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0252</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -545,36 +503,78 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006822</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>凯石湛混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>77.93</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -583,1005 +583,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002132</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发鑫享灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>37.98</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.41</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4015</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>720001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>财通价值动量混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>19.64</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.67</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9565</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001480</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>财通成长优选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.61</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.27</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7685</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008638</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发科技创新混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.75</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5828</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501085</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.41</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5823</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008983</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>财通科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.34</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3414</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009130</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏扬景恒六个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>35.02</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>23.49</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3292</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009062</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>财通智慧成长混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1976</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>501046</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>财通多策略福鑫定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>87.45</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1435</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009114</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏扬景泓回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>79.99</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1302</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>673081</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>西部利得祥运灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>83.67</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0814</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009131</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏扬景恒六个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>23.49</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0603</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009063</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>财通智慧成长混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0382</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008984</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>财通科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.34</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0366</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000916</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>前海开源股息率100强等权重股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.04</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0247</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007137</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>鹏扬元合量化大盘优选股票A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.71</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0247</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>673083</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>西部利得祥运灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>83.67</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0216</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009115</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>鹏扬景泓回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>79.99</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0214</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>007138</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>鹏扬元合量化大盘优选股票C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>90.71</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>004560</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>汇安丰益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>83.29</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>004561</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>汇安丰益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>83.29</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>004212</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中融量化智选混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005628</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>汇安趋势动力股票A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>90.81</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005629</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>汇安趋势动力股票C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>90.81</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004783</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中融量化智选混合C</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1608,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1638,32 +639,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>720001</t>
+          <t>217002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通价值动量混合</t>
+          <t>招商安泰平衡混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.34</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.29</t>
+          <t>47.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9844</t>
+          <t>0.2780</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1676,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001480</t>
+          <t>002317</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>财通成长优选混合</t>
+          <t>招商睿逸稳健配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.03</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>46.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6280</t>
+          <t>0.1928</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1714,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501085</t>
+          <t>013626</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+          <t>华夏周期驱动混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.41</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.14</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5709</t>
+          <t>0.1269</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1752,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008983</t>
+          <t>013627</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>财通科技创新混合A</t>
+          <t>华夏周期驱动混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.56</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2793</t>
+          <t>0.0787</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1790,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010963</t>
+          <t>012963</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>信达澳银周期动力混合</t>
+          <t>招商稳健平衡混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>96.01</t>
+          <t>69.04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1669</t>
+          <t>0.0367</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1828,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501046</t>
+          <t>014014</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>财通多策略福鑫定期开放灵活配置混合</t>
+          <t>招商臻选平衡混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.49</t>
+          <t>69.61</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1169</t>
+          <t>0.0319</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1866,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>673081</t>
+          <t>013759</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>西部利得祥运灵活配置混合A</t>
+          <t>招商精选平衡混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>80.56</t>
+          <t>69.61</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0524</t>
+          <t>0.0209</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1904,36 +905,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008984</t>
+          <t>012964</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>财通科技创新混合C</t>
+          <t>招商稳健平衡混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.56</t>
+          <t>69.04</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0335</t>
+          <t>0.0168</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1942,36 +943,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007137</t>
+          <t>014015</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏扬元合量化大盘优选股票A</t>
+          <t>招商臻选平衡混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>69.61</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0263</t>
+          <t>0.0125</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1980,36 +981,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007138</t>
+          <t>519099</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鹏扬元合量化大盘优选股票C</t>
+          <t>新华灵活主题混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>83.43</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0165</t>
+          <t>0.0061</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -2018,36 +1019,130 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>673083</t>
+          <t>013760</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>西部利得祥运灵活配置混合C</t>
+          <t>招商精选平衡混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>80.56</t>
+          <t>69.61</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0156</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006478</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛多因子策略优选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2193,7 +1288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2214,7 +1309,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2244,36 +1339,416 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006478</t>
+          <t>720001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长盛多因子策略优选股票</t>
+          <t>财通价值动量混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9844</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6280</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5709</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2793</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1669</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>673081</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>0.51</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.41</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2287,7 +1762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2308,7 +1783,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2338,36 +1813,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>217002</t>
+          <t>002132</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商安泰平衡混合</t>
+          <t>广发鑫享灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>37.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>47.79</t>
+          <t>85.41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2780</t>
+          <t>1.4015</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2376,36 +1851,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002317</t>
+          <t>720001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商睿逸稳健配置混合</t>
+          <t>财通价值动量混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t>19.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>46.28</t>
+          <t>79.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1928</t>
+          <t>0.9565</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2414,36 +1889,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013626</t>
+          <t>001480</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏周期驱动混合A</t>
+          <t>财通成长优选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>14.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>95.27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1269</t>
+          <t>0.7685</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2452,36 +1927,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>013627</t>
+          <t>008638</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏周期驱动混合C</t>
+          <t>广发科技创新混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>11.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0787</t>
+          <t>0.5828</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2490,36 +1965,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012963</t>
+          <t>501085</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商稳健平衡混合A</t>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>69.04</t>
+          <t>89.41</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0367</t>
+          <t>0.5823</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2528,36 +2003,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>014014</t>
+          <t>008983</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商臻选平衡混合A</t>
+          <t>财通科技创新混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>69.61</t>
+          <t>92.34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0319</t>
+          <t>0.3414</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -2566,32 +2041,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>013759</t>
+          <t>009130</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>招商精选平衡混合A</t>
+          <t>鹏扬景恒六个月持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>35.02</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>69.61</t>
+          <t>23.49</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0209</t>
+          <t>0.3292</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -2604,32 +2079,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>012964</t>
+          <t>009062</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>招商稳健平衡混合C</t>
+          <t>财通智慧成长混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>69.04</t>
+          <t>91.84</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0168</t>
+          <t>0.1976</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2642,36 +2117,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>014015</t>
+          <t>501046</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商臻选平衡混合C</t>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>69.61</t>
+          <t>87.45</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0125</t>
+          <t>0.1435</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -2680,36 +2155,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>519099</t>
+          <t>009114</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>新华灵活主题混合</t>
+          <t>鹏扬景泓回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>83.43</t>
+          <t>79.99</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0061</t>
+          <t>0.1302</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2718,36 +2193,561 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>013760</t>
+          <t>673081</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商精选平衡混合C</t>
+          <t>西部利得祥运灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>69.61</t>
+          <t>83.67</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0041</t>
+          <t>0.0814</t>
         </is>
       </c>
       <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>673083</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得祥运灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004560</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004561</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇安丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2761,7 +2761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2772,17 +2772,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2792,14 +2812,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8100000000000001</v>
+          <t>006823</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>凯石湛混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2808,78 +2850,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.89</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>25</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.77</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.03</v>
+          <t>006822</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>凯石湛混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000703-恒逸石化.xlsx
+++ b/数据整理/stocks/A股/深证主板/000703-恒逸石化.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2.89</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>5.77</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>25</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -583,6 +600,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>49.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2168</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>46.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013759</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013760</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015225</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015226</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1056,7 +1433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1150,7 +1527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1282,7 +1659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1756,7 +2133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2755,7 +3132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000703-恒逸石化.xlsx
+++ b/数据整理/stocks/A股/深证主板/000703-恒逸石化.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.42</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>2.89</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>5.77</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -600,6 +617,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159617</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证智选500价值稳健策略ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013759</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015225</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015226</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证细分化工产业主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -959,7 +1374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1433,7 +1848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1527,7 +1942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1659,7 +2074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2133,7 +2548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3132,7 +3547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
